--- a/Hardware/Altium_Source_Files/Release/2023-10-28_2203_OpenFan_R03/BOM/2023-10-30_10-06_OpenFAN_PC_PI_BOM.xlsx
+++ b/Hardware/Altium_Source_Files/Release/2023-10-28_2203_OpenFan_R03/BOM/2023-10-30_10-06_OpenFAN_PC_PI_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sasa\Desktop\git\_public_sk_repos\OpenFanController\Hardware\Altium_Source_Files\Release\2023-10-28_2203_OpenFan_R03\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70344AFF-AB2C-4558-A08E-A4EA2A72ABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5853BC49-2701-41F2-92C1-43D9C5AB524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF439D91-C3E7-4174-BB45-5014A9FEA228}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Samsung Electro-Mechanics</t>
   </si>
   <si>
-    <t>CL10B103KB8NNNC</t>
-  </si>
-  <si>
     <t>C5, C9, C20</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
     <t>S150-M1A5T-003,
 S150-M2A5T-003,
 S150-M3A5T-003,</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
   </si>
 </sst>
 </file>
@@ -343,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,7 +383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -489,7 +489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,7 +642,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
